--- a/Foundations & Stakeholder Collaboration/Product Manager Skills Checklist.xlsx
+++ b/Foundations & Stakeholder Collaboration/Product Manager Skills Checklist.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Misty\AppData\Local\Box\Box Edit\Documents\9FNwd1PUFU6HHTiHtV_Ang==\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76926CB1-C728-457C-B972-AFDB1699E4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B681FA32-80AC-4434-A5AE-2BF2E898A521}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Definition</t>
   </si>
@@ -412,11 +411,23 @@
 • Identify the skills required and provide justification for your assessment</t>
     </r>
   </si>
+  <si>
+    <t>Data analysis skills</t>
+  </si>
+  <si>
+    <t>Thoroughness</t>
+  </si>
+  <si>
+    <t>Strategic planning</t>
+  </si>
+  <si>
+    <t>Risk assessment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -846,26 +857,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE3F851-6B59-41D1-A980-5869A3086031}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="87.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="42.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="87.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>108</v>
       </c>
@@ -873,7 +884,7 @@
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>105</v>
       </c>
@@ -887,7 +898,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -897,7 +908,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>62</v>
       </c>
@@ -907,27 +918,31 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>69</v>
       </c>
@@ -937,7 +952,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -947,7 +962,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -957,7 +972,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
@@ -967,17 +982,19 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -987,7 +1004,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>60</v>
       </c>
@@ -997,7 +1014,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>84</v>
       </c>
@@ -1007,7 +1024,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>85</v>
       </c>
@@ -1017,17 +1034,19 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>66</v>
       </c>
@@ -1037,7 +1056,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
@@ -1047,7 +1066,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>86</v>
       </c>
@@ -1057,7 +1076,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>87</v>
       </c>
@@ -1067,7 +1086,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>88</v>
       </c>
@@ -1077,7 +1096,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
@@ -1087,7 +1106,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>89</v>
       </c>
@@ -1097,7 +1116,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
@@ -1107,7 +1126,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -1117,7 +1136,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>43</v>
       </c>
@@ -1127,7 +1146,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>90</v>
       </c>
@@ -1137,7 +1156,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>91</v>
       </c>
@@ -1147,7 +1166,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>63</v>
       </c>
@@ -1157,7 +1176,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
@@ -1167,7 +1186,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>92</v>
       </c>
@@ -1177,7 +1196,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
@@ -1187,7 +1206,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>93</v>
       </c>
@@ -1197,7 +1216,7 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>94</v>
       </c>
@@ -1207,7 +1226,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
@@ -1217,7 +1236,7 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
@@ -1227,7 +1246,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>95</v>
       </c>
@@ -1237,7 +1256,7 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>96</v>
       </c>
@@ -1247,7 +1266,7 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>97</v>
       </c>
@@ -1257,7 +1276,7 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>98</v>
       </c>
@@ -1267,7 +1286,7 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>99</v>
       </c>
@@ -1277,7 +1296,7 @@
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>61</v>
       </c>
@@ -1287,7 +1306,7 @@
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>100</v>
       </c>
@@ -1297,7 +1316,7 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>101</v>
       </c>
@@ -1307,7 +1326,7 @@
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>102</v>
       </c>
@@ -1317,7 +1336,7 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>68</v>
       </c>
@@ -1327,7 +1346,7 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>103</v>
       </c>
@@ -1337,7 +1356,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>7</v>
       </c>
@@ -1347,7 +1366,7 @@
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>22</v>
       </c>
@@ -1357,7 +1376,7 @@
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>38</v>
       </c>
@@ -1367,7 +1386,7 @@
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>104</v>
       </c>
@@ -1377,7 +1396,7 @@
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>58</v>
       </c>
@@ -1387,7 +1406,7 @@
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>65</v>
       </c>
@@ -1397,7 +1416,7 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>67</v>
       </c>
@@ -1408,8 +1427,8 @@
       <c r="D54" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:B2" xr:uid="{2EE3F851-6B59-41D1-A980-5869A3086031}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B54">
+  <autoFilter ref="A2:B2"/>
+  <sortState ref="A3:B54">
     <sortCondition ref="A3:A54"/>
   </sortState>
   <mergeCells count="1">
